--- a/Prototypes/Lucerne/Hudson.xlsx
+++ b/Prototypes/Lucerne/Hudson.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="41">
   <si>
     <t>Runoff</t>
   </si>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>HudsonDefoliation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shootbiomass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,12 +167,23 @@
     <t>SWC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TrenqueLauquenDefoliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalcarceDefoliation</t>
+  </si>
+  <si>
+    <t>Shootbiomass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +197,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -408,6 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,19 +765,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL247"/>
+  <dimension ref="A1:AL272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="7" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
@@ -797,106 +816,106 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -7759,6 +7778,281 @@
         <v>578.17636440044839</v>
       </c>
     </row>
+    <row r="248" spans="1:38" ht="14.25">
+      <c r="A248" t="s">
+        <v>38</v>
+      </c>
+      <c r="B248" s="10">
+        <v>40669</v>
+      </c>
+      <c r="E248" s="31">
+        <v>1041.3924668098318</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" ht="14.25">
+      <c r="A249" t="s">
+        <v>38</v>
+      </c>
+      <c r="B249" s="10">
+        <v>40994</v>
+      </c>
+      <c r="E249" s="31">
+        <v>2718.7670420909244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" ht="14.25">
+      <c r="A250" t="s">
+        <v>38</v>
+      </c>
+      <c r="B250" s="10">
+        <v>41025</v>
+      </c>
+      <c r="E250" s="31">
+        <v>1090.9128817441676</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" ht="14.25">
+      <c r="A251" t="s">
+        <v>38</v>
+      </c>
+      <c r="B251" s="10">
+        <v>40497</v>
+      </c>
+      <c r="E251" s="31">
+        <v>1428.0601256707926</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38" ht="14.25">
+      <c r="A252" t="s">
+        <v>38</v>
+      </c>
+      <c r="B252" s="10">
+        <v>40525</v>
+      </c>
+      <c r="E252" s="31">
+        <v>1109.0302625560137</v>
+      </c>
+    </row>
+    <row r="253" spans="1:38" ht="14.25">
+      <c r="A253" t="s">
+        <v>38</v>
+      </c>
+      <c r="B253" s="10">
+        <v>40870</v>
+      </c>
+      <c r="E253" s="31">
+        <v>1924.9715364428332</v>
+      </c>
+    </row>
+    <row r="254" spans="1:38" ht="14.25">
+      <c r="A254" t="s">
+        <v>38</v>
+      </c>
+      <c r="B254" s="10">
+        <v>40555</v>
+      </c>
+      <c r="E254" s="31">
+        <v>1728.9720630717381</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38" ht="14.25">
+      <c r="A255" t="s">
+        <v>38</v>
+      </c>
+      <c r="B255" s="10">
+        <v>40588</v>
+      </c>
+      <c r="E255" s="31">
+        <v>1299.8472870918715</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38" ht="14.25">
+      <c r="A256" t="s">
+        <v>38</v>
+      </c>
+      <c r="B256" s="10">
+        <v>40618</v>
+      </c>
+      <c r="E256" s="31">
+        <v>1357.4232013729957</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.25">
+      <c r="A257" t="s">
+        <v>38</v>
+      </c>
+      <c r="B257" s="10">
+        <v>40898</v>
+      </c>
+      <c r="E257" s="31">
+        <v>1792.4102161656999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14.25">
+      <c r="A258" t="s">
+        <v>38</v>
+      </c>
+      <c r="B258" s="10">
+        <v>40941</v>
+      </c>
+      <c r="E258" s="31">
+        <v>1285.9131356751432</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14.25">
+      <c r="A259" t="s">
+        <v>38</v>
+      </c>
+      <c r="B259" s="10">
+        <v>40736</v>
+      </c>
+      <c r="E259" s="31">
+        <v>938.91345756715543</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14.25">
+      <c r="A260" t="s">
+        <v>38</v>
+      </c>
+      <c r="B260" s="10">
+        <v>40800</v>
+      </c>
+      <c r="E260" s="31">
+        <v>1215.1848840571292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14.25">
+      <c r="A261" t="s">
+        <v>39</v>
+      </c>
+      <c r="B261" s="30">
+        <v>41381</v>
+      </c>
+      <c r="E261" s="31">
+        <v>1788.1208639599986</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14.25">
+      <c r="A262" t="s">
+        <v>39</v>
+      </c>
+      <c r="B262" s="30">
+        <v>41430</v>
+      </c>
+      <c r="E262" s="31">
+        <v>1017.1588161459719</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14.25">
+      <c r="A263" t="s">
+        <v>39</v>
+      </c>
+      <c r="B263" s="30">
+        <v>41745</v>
+      </c>
+      <c r="E263" s="31">
+        <v>1741.9372112305455</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14.25">
+      <c r="A264" t="s">
+        <v>39</v>
+      </c>
+      <c r="B264" s="30">
+        <v>41575</v>
+      </c>
+      <c r="E264" s="31">
+        <v>4456.5017153850686</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14.25">
+      <c r="A265" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" s="30">
+        <v>41604</v>
+      </c>
+      <c r="E265" s="31">
+        <v>2975.2807719751208</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.25">
+      <c r="A266" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266" s="30">
+        <v>41283</v>
+      </c>
+      <c r="E266" s="31">
+        <v>3192.0628676195015</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14.25">
+      <c r="A267" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" s="30">
+        <v>41312</v>
+      </c>
+      <c r="E267" s="31">
+        <v>2530.4333531349639</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14.25">
+      <c r="A268" t="s">
+        <v>39</v>
+      </c>
+      <c r="B268" s="30">
+        <v>41346</v>
+      </c>
+      <c r="E268" s="31">
+        <v>3485.1932732706136</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="14.25">
+      <c r="A269" t="s">
+        <v>39</v>
+      </c>
+      <c r="B269" s="30">
+        <v>41635</v>
+      </c>
+      <c r="E269" s="31">
+        <v>3837.7393580488433</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.25">
+      <c r="A270" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" s="30">
+        <v>41667</v>
+      </c>
+      <c r="E270" s="31">
+        <v>1784.9859353248371</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14.25">
+      <c r="A271" t="s">
+        <v>39</v>
+      </c>
+      <c r="B271" s="30">
+        <v>41694</v>
+      </c>
+      <c r="E271" s="31">
+        <v>2192.2605789696322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14.25">
+      <c r="A272" t="s">
+        <v>39</v>
+      </c>
+      <c r="B272" s="30">
+        <v>41533</v>
+      </c>
+      <c r="E272" s="31">
+        <v>1677.005858845856</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1" xr:uid="{9228C658-BF57-46C4-915E-B499385F2A9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
